--- a/data/IMdata/IM_annotation.xlsx
+++ b/data/IMdata/IM_annotation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bras5181\Desktop\Labprojects\EPS\LPiModulons\data\IMdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C38898EE-6B21-4C17-9C0F-375D3BE8937A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82C03114-D97F-492A-A3E2-F4524AC5EF3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="22">
   <si>
     <t>IM</t>
   </si>
@@ -36,16 +36,61 @@
     <t>Fur/LexA</t>
   </si>
   <si>
-    <t>Function</t>
-  </si>
-  <si>
-    <t>Translation</t>
-  </si>
-  <si>
-    <t>Acid stress</t>
-  </si>
-  <si>
-    <t>Virus infection</t>
+    <t>CcpA</t>
+  </si>
+  <si>
+    <t>_</t>
+  </si>
+  <si>
+    <t>CcpA+AraR</t>
+  </si>
+  <si>
+    <t>MurR</t>
+  </si>
+  <si>
+    <t>CcpA+GutR</t>
+  </si>
+  <si>
+    <t>GntR</t>
+  </si>
+  <si>
+    <t>CopR</t>
+  </si>
+  <si>
+    <t>PurR</t>
+  </si>
+  <si>
+    <t>GalR/AraR</t>
+  </si>
+  <si>
+    <t>Method</t>
+  </si>
+  <si>
+    <t>motif</t>
+  </si>
+  <si>
+    <t>enrichment</t>
+  </si>
+  <si>
+    <t>ArgR/MleR</t>
+  </si>
+  <si>
+    <t>PyrR</t>
+  </si>
+  <si>
+    <t>CcpB/PflR</t>
+  </si>
+  <si>
+    <t>MalR+MdxR</t>
+  </si>
+  <si>
+    <t>MntR</t>
+  </si>
+  <si>
+    <t>TreR</t>
+  </si>
+  <si>
+    <t>McbR</t>
   </si>
 </sst>
 </file>
@@ -363,16 +408,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C54"/>
+  <dimension ref="A1:C46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="14.36328125" customWidth="1"/>
-    <col min="3" max="3" width="13.36328125" customWidth="1"/>
+    <col min="2" max="3" width="14.36328125" customWidth="1"/>
+    <col min="4" max="4" width="13.36328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
@@ -383,15 +428,18 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>0</v>
       </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -402,265 +450,480 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2</v>
       </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
         <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14">
-        <v>12</v>
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="B15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16">
-        <v>14</v>
+        <v>16</v>
+      </c>
+      <c r="B16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17">
-        <v>15</v>
+        <v>17</v>
+      </c>
+      <c r="B17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18">
-        <v>16</v>
+        <v>18</v>
+      </c>
+      <c r="B18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19">
-        <v>17</v>
+        <v>19</v>
+      </c>
+      <c r="B19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20">
-        <v>18</v>
+        <v>20</v>
+      </c>
+      <c r="B20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="B21" t="s">
+        <v>4</v>
       </c>
       <c r="C21" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22">
-        <v>20</v>
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23">
-        <v>21</v>
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24">
-        <v>22</v>
+        <v>26</v>
+      </c>
+      <c r="B24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25">
-        <v>23</v>
+        <v>27</v>
+      </c>
+      <c r="B25" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26">
-        <v>24</v>
+        <v>28</v>
+      </c>
+      <c r="B26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27">
-        <v>25</v>
+        <v>30</v>
+      </c>
+      <c r="B27" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28">
-        <v>26</v>
+        <v>31</v>
+      </c>
+      <c r="B28" t="s">
+        <v>21</v>
+      </c>
+      <c r="C28" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29">
-        <v>27</v>
+        <v>32</v>
+      </c>
+      <c r="B29" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30">
-        <v>28</v>
+        <v>33</v>
+      </c>
+      <c r="B30" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31">
-        <v>29</v>
+        <v>34</v>
+      </c>
+      <c r="B31" t="s">
+        <v>4</v>
+      </c>
+      <c r="C31" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+        <v>35</v>
+      </c>
+      <c r="B32" t="s">
+        <v>4</v>
+      </c>
+      <c r="C32" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+        <v>36</v>
+      </c>
+      <c r="B33" t="s">
+        <v>16</v>
+      </c>
+      <c r="C33" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+        <v>38</v>
+      </c>
+      <c r="B34" t="s">
+        <v>4</v>
+      </c>
+      <c r="C34" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+        <v>39</v>
+      </c>
+      <c r="B35" t="s">
+        <v>4</v>
+      </c>
+      <c r="C35" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+      <c r="B36" t="s">
+        <v>4</v>
+      </c>
+      <c r="C36" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
+        <v>41</v>
+      </c>
+      <c r="B37" t="s">
+        <v>4</v>
+      </c>
+      <c r="C37" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
+        <v>42</v>
+      </c>
+      <c r="B38" t="s">
+        <v>3</v>
+      </c>
+      <c r="C38" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
+        <v>43</v>
+      </c>
+      <c r="B39" t="s">
+        <v>4</v>
+      </c>
+      <c r="C39" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
+        <v>44</v>
+      </c>
+      <c r="B40" t="s">
+        <v>4</v>
+      </c>
+      <c r="C40" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
+        <v>45</v>
+      </c>
+      <c r="B41" t="s">
+        <v>17</v>
+      </c>
+      <c r="C41" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
+        <v>46</v>
+      </c>
+      <c r="B42" t="s">
+        <v>4</v>
+      </c>
+      <c r="C42" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
+        <v>47</v>
+      </c>
+      <c r="B43" t="s">
+        <v>18</v>
+      </c>
+      <c r="C43" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
+        <v>48</v>
+      </c>
+      <c r="B44" t="s">
+        <v>19</v>
+      </c>
+      <c r="C44" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
+        <v>49</v>
+      </c>
+      <c r="B45" t="s">
+        <v>20</v>
+      </c>
+      <c r="C45" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A47">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A48">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A49">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A50">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A51">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A52">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A53">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A54">
         <v>52</v>
+      </c>
+      <c r="B46" t="s">
+        <v>4</v>
+      </c>
+      <c r="C46" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
